--- a/projectplan/project-plan_2021.xlsx
+++ b/projectplan/project-plan_2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\imhofmi\Schulung\UC-DevOpsEngineer\C3. Agile Development with Azure\Project - Building a CICD Pipeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\imhofmi\Schulung\UC-DevOpsEngineer\C3. Agile Development with Azure\Project - Building a CICD Pipeline\flask-sklearn\projectplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Goals</t>
-  </si>
-  <si>
-    <t>Frontend</t>
   </si>
   <si>
     <t>CI/CD</t>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>More sophisticated ML model</t>
+  </si>
+  <si>
+    <t>Backend</t>
   </si>
 </sst>
 </file>
@@ -461,13 +461,13 @@
   <sheetData>
     <row r="1" spans="1:26" s="18" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="16">
         <v>2021</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="15"/>
       <c r="E1" s="15"/>
@@ -495,19 +495,19 @@
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>3</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -533,19 +533,19 @@
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -571,19 +571,19 @@
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -609,19 +609,19 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -647,14 +647,14 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
